--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cranes Software International Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cranes Software International Ltd/Pruned_Excel/Pruned_Profit-loss_combined.xlsx
@@ -1495,7 +1495,7 @@
         <v>118.14</v>
       </c>
       <c r="G16">
-        <v>14.49642857142857</v>
+        <v>14.5</v>
       </c>
       <c r="H16">
         <v>3.32</v>
@@ -1560,7 +1560,7 @@
         <v>14.34</v>
       </c>
       <c r="G17">
-        <v>14.49642857142857</v>
+        <v>14.5</v>
       </c>
       <c r="H17">
         <v>3.25</v>
@@ -1625,7 +1625,7 @@
         <v>3.75</v>
       </c>
       <c r="G18">
-        <v>14.49642857142857</v>
+        <v>14.5</v>
       </c>
       <c r="H18">
         <v>2.31</v>
@@ -1690,7 +1690,7 @@
         <v>65.38</v>
       </c>
       <c r="G19">
-        <v>14.49642857142857</v>
+        <v>14.5</v>
       </c>
       <c r="H19">
         <v>1.02</v>
@@ -1740,13 +1740,13 @@
         <v>39</v>
       </c>
       <c r="B20">
-        <v>76.77444444444444</v>
+        <v>76.77</v>
       </c>
       <c r="C20">
-        <v>76.77444444444444</v>
+        <v>76.77</v>
       </c>
       <c r="D20">
-        <v>76.77444444444444</v>
+        <v>76.77</v>
       </c>
       <c r="E20">
         <v>189.63</v>
@@ -1755,7 +1755,7 @@
         <v>189.63</v>
       </c>
       <c r="G20">
-        <v>14.49642857142857</v>
+        <v>14.5</v>
       </c>
       <c r="H20">
         <v>0.5600000000000001</v>
@@ -1805,28 +1805,28 @@
         <v>40</v>
       </c>
       <c r="B21">
-        <v>76.77444444444444</v>
+        <v>76.77</v>
       </c>
       <c r="C21">
-        <v>76.77444444444444</v>
+        <v>76.77</v>
       </c>
       <c r="D21">
-        <v>76.77444444444444</v>
+        <v>76.77</v>
       </c>
       <c r="E21">
-        <v>32.88842105263158</v>
+        <v>32.89</v>
       </c>
       <c r="F21">
-        <v>105.6231578947368</v>
+        <v>105.62</v>
       </c>
       <c r="G21">
-        <v>14.49642857142857</v>
+        <v>14.5</v>
       </c>
       <c r="H21">
         <v>0.55</v>
       </c>
       <c r="I21">
-        <v>45.28789473684211</v>
+        <v>45.29</v>
       </c>
       <c r="J21">
         <v>0.03</v>
@@ -1844,10 +1844,10 @@
         <v>-18.67</v>
       </c>
       <c r="O21">
-        <v>-0.103157894736844</v>
+        <v>-0.1</v>
       </c>
       <c r="P21">
-        <v>2.639473684210525</v>
+        <v>2.64</v>
       </c>
       <c r="Q21">
         <v>-18.67</v>
